--- a/data/pca/factorExposure/factorExposure_2011-10-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01338037606558042</v>
+        <v>-0.01418114948109883</v>
       </c>
       <c r="C2">
-        <v>0.03200482371273422</v>
+        <v>-0.000401452009998853</v>
       </c>
       <c r="D2">
-        <v>0.01953359015866776</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03221342270160446</v>
+      </c>
+      <c r="E2">
+        <v>-0.002492129539663561</v>
+      </c>
+      <c r="F2">
+        <v>-0.0382130774769124</v>
+      </c>
+      <c r="G2">
+        <v>-0.0150349043673342</v>
+      </c>
+      <c r="H2">
+        <v>-0.01115993891044746</v>
+      </c>
+      <c r="I2">
+        <v>-0.005279445783240258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07742885099094154</v>
+        <v>-0.09167874260940076</v>
       </c>
       <c r="C4">
-        <v>0.05894836232186712</v>
+        <v>-0.04130301346543717</v>
       </c>
       <c r="D4">
-        <v>0.08166849342157219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07659721039912054</v>
+      </c>
+      <c r="E4">
+        <v>0.02853983378160248</v>
+      </c>
+      <c r="F4">
+        <v>-0.05325812783569572</v>
+      </c>
+      <c r="G4">
+        <v>0.02496619433439538</v>
+      </c>
+      <c r="H4">
+        <v>0.01133376093939315</v>
+      </c>
+      <c r="I4">
+        <v>0.07178838154589427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1175014019247421</v>
+        <v>-0.1285054719869816</v>
       </c>
       <c r="C6">
-        <v>0.05231873290117611</v>
+        <v>0.005547213273313756</v>
       </c>
       <c r="D6">
-        <v>0.01205063029883642</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.03882449324141159</v>
+      </c>
+      <c r="E6">
+        <v>-0.02826579601354312</v>
+      </c>
+      <c r="F6">
+        <v>-0.03722838501697518</v>
+      </c>
+      <c r="G6">
+        <v>0.04273417662447082</v>
+      </c>
+      <c r="H6">
+        <v>-0.1822584207837137</v>
+      </c>
+      <c r="I6">
+        <v>-0.01320560706006621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.06528910530553921</v>
+        <v>-0.06865583438985241</v>
       </c>
       <c r="C7">
-        <v>0.04646195350842183</v>
+        <v>-0.03734664454104784</v>
       </c>
       <c r="D7">
-        <v>0.03426162819947341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05391881018672269</v>
+      </c>
+      <c r="E7">
+        <v>0.009346739223454973</v>
+      </c>
+      <c r="F7">
+        <v>-0.05620302029904467</v>
+      </c>
+      <c r="G7">
+        <v>-0.0173834894301876</v>
+      </c>
+      <c r="H7">
+        <v>0.0152780527171485</v>
+      </c>
+      <c r="I7">
+        <v>0.03696087216116558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04296023354308704</v>
+        <v>-0.04319784934814919</v>
       </c>
       <c r="C8">
-        <v>-0.002297938681630377</v>
+        <v>-0.02774386293368909</v>
       </c>
       <c r="D8">
-        <v>0.06192768918939024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.009868737288257321</v>
+      </c>
+      <c r="E8">
+        <v>0.03329686360469465</v>
+      </c>
+      <c r="F8">
+        <v>-0.07047175832431919</v>
+      </c>
+      <c r="G8">
+        <v>0.04663673202975987</v>
+      </c>
+      <c r="H8">
+        <v>-0.02176050003654966</v>
+      </c>
+      <c r="I8">
+        <v>0.1148443145987057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0729235925193527</v>
+        <v>-0.08260789763821341</v>
       </c>
       <c r="C9">
-        <v>0.04134541287807803</v>
+        <v>-0.04291778867389306</v>
       </c>
       <c r="D9">
-        <v>0.07615149505557546</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05936093646031013</v>
+      </c>
+      <c r="E9">
+        <v>0.03015666855924137</v>
+      </c>
+      <c r="F9">
+        <v>-0.05015133397505895</v>
+      </c>
+      <c r="G9">
+        <v>0.0389276760497999</v>
+      </c>
+      <c r="H9">
+        <v>0.01762785670040085</v>
+      </c>
+      <c r="I9">
+        <v>0.07528528248936572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02502269278024799</v>
+        <v>-0.06118217571454323</v>
       </c>
       <c r="C10">
-        <v>0.02633506733455793</v>
+        <v>0.1927954863130816</v>
       </c>
       <c r="D10">
-        <v>-0.1773726491238178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.03843515897956426</v>
+      </c>
+      <c r="E10">
+        <v>-0.001549842331913846</v>
+      </c>
+      <c r="F10">
+        <v>-0.05376285479388923</v>
+      </c>
+      <c r="G10">
+        <v>-0.03915611194226571</v>
+      </c>
+      <c r="H10">
+        <v>-0.04732342082950484</v>
+      </c>
+      <c r="I10">
+        <v>-0.06121635148250718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.07003453460581416</v>
+        <v>-0.07447986923326699</v>
       </c>
       <c r="C11">
-        <v>0.03617377831984987</v>
+        <v>-0.04341590609188684</v>
       </c>
       <c r="D11">
-        <v>0.05866030017187341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04792545556338839</v>
+      </c>
+      <c r="E11">
+        <v>0.007069072734138986</v>
+      </c>
+      <c r="F11">
+        <v>-0.04274087932410336</v>
+      </c>
+      <c r="G11">
+        <v>0.0532187464971657</v>
+      </c>
+      <c r="H11">
+        <v>0.04747201383098162</v>
+      </c>
+      <c r="I11">
+        <v>0.06963598404643999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.06673308402033715</v>
+        <v>-0.07090092882076406</v>
       </c>
       <c r="C12">
-        <v>0.048985942977761</v>
+        <v>-0.03010285737836992</v>
       </c>
       <c r="D12">
-        <v>0.04557782068715842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05147950425218615</v>
+      </c>
+      <c r="E12">
+        <v>0.0133202525523685</v>
+      </c>
+      <c r="F12">
+        <v>-0.02935239955487484</v>
+      </c>
+      <c r="G12">
+        <v>0.026993105235638</v>
+      </c>
+      <c r="H12">
+        <v>0.02017435564431207</v>
+      </c>
+      <c r="I12">
+        <v>0.08697568148918458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0669778919835092</v>
+        <v>-0.06525681616038841</v>
       </c>
       <c r="C13">
-        <v>0.04699029950022328</v>
+        <v>-0.02867553684674564</v>
       </c>
       <c r="D13">
-        <v>0.05951627189561086</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04795684461116083</v>
+      </c>
+      <c r="E13">
+        <v>0.05089154788590806</v>
+      </c>
+      <c r="F13">
+        <v>-0.02627085646129081</v>
+      </c>
+      <c r="G13">
+        <v>0.00780485867521047</v>
+      </c>
+      <c r="H13">
+        <v>0.03682353636917501</v>
+      </c>
+      <c r="I13">
+        <v>0.09909805371649701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03050779625314313</v>
+        <v>-0.04066443864749868</v>
       </c>
       <c r="C14">
-        <v>0.0314793601785341</v>
+        <v>0.0007698081287359524</v>
       </c>
       <c r="D14">
-        <v>0.003194569572544472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03471201088145617</v>
+      </c>
+      <c r="E14">
+        <v>0.01684714153831837</v>
+      </c>
+      <c r="F14">
+        <v>-0.02251963658919986</v>
+      </c>
+      <c r="G14">
+        <v>0.02860749120944225</v>
+      </c>
+      <c r="H14">
+        <v>0.06633783868656257</v>
+      </c>
+      <c r="I14">
+        <v>0.05042852974275299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0469943681045557</v>
+        <v>-0.04092100855233557</v>
       </c>
       <c r="C15">
-        <v>0.01070553680538555</v>
+        <v>-0.01649246598928929</v>
       </c>
       <c r="D15">
-        <v>0.02542595826136613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008944670649812298</v>
+      </c>
+      <c r="E15">
+        <v>0.03500484787888079</v>
+      </c>
+      <c r="F15">
+        <v>-0.0005660324881088716</v>
+      </c>
+      <c r="G15">
+        <v>0.0237772642172032</v>
+      </c>
+      <c r="H15">
+        <v>0.02093894096072803</v>
+      </c>
+      <c r="I15">
+        <v>0.02410149866846328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05979234400634897</v>
+        <v>-0.07121273102927679</v>
       </c>
       <c r="C16">
-        <v>0.04002361675989175</v>
+        <v>-0.04203672881617132</v>
       </c>
       <c r="D16">
-        <v>0.06095761564161875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0563093178211989</v>
+      </c>
+      <c r="E16">
+        <v>0.01400667280068524</v>
+      </c>
+      <c r="F16">
+        <v>-0.033680106617881</v>
+      </c>
+      <c r="G16">
+        <v>0.0265222992075603</v>
+      </c>
+      <c r="H16">
+        <v>0.03094203381983638</v>
+      </c>
+      <c r="I16">
+        <v>0.04372161833623951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.06420793637869045</v>
+        <v>-0.06190811198283086</v>
       </c>
       <c r="C20">
-        <v>0.02070577921105596</v>
+        <v>-0.03608033286994717</v>
       </c>
       <c r="D20">
-        <v>0.05595277539514903</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0270072566911885</v>
+      </c>
+      <c r="E20">
+        <v>0.002826418517210305</v>
+      </c>
+      <c r="F20">
+        <v>-0.03058190312051761</v>
+      </c>
+      <c r="G20">
+        <v>0.01732597125199816</v>
+      </c>
+      <c r="H20">
+        <v>0.04443113129089961</v>
+      </c>
+      <c r="I20">
+        <v>0.1020218980143052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03606631508109463</v>
+        <v>-0.0309143877130949</v>
       </c>
       <c r="C21">
-        <v>0.008631877619086211</v>
+        <v>-0.01649764187805105</v>
       </c>
       <c r="D21">
-        <v>0.008423669984315258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.008484022316272447</v>
+      </c>
+      <c r="E21">
+        <v>0.03713867747726271</v>
+      </c>
+      <c r="F21">
+        <v>0.001229747093151995</v>
+      </c>
+      <c r="G21">
+        <v>0.002116447344929721</v>
+      </c>
+      <c r="H21">
+        <v>-0.05431263400637409</v>
+      </c>
+      <c r="I21">
+        <v>0.02637818514365598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.1132919275550148</v>
+        <v>-0.09609407753318938</v>
       </c>
       <c r="C22">
-        <v>0.03076601102951984</v>
+        <v>-0.04892143713480837</v>
       </c>
       <c r="D22">
-        <v>0.08398129624062309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0167549367419015</v>
+      </c>
+      <c r="E22">
+        <v>0.5536648783406911</v>
+      </c>
+      <c r="F22">
+        <v>-0.06644616331714678</v>
+      </c>
+      <c r="G22">
+        <v>-0.2674770245297944</v>
+      </c>
+      <c r="H22">
+        <v>-0.1335293614021521</v>
+      </c>
+      <c r="I22">
+        <v>-0.2309304896893408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.1139967785174366</v>
+        <v>-0.09691621527774739</v>
       </c>
       <c r="C23">
-        <v>0.03173942263351411</v>
+        <v>-0.04911797580646994</v>
       </c>
       <c r="D23">
-        <v>0.08406815790793026</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01793483421106408</v>
+      </c>
+      <c r="E23">
+        <v>0.556957667334523</v>
+      </c>
+      <c r="F23">
+        <v>-0.0682698023317538</v>
+      </c>
+      <c r="G23">
+        <v>-0.2619220977999607</v>
+      </c>
+      <c r="H23">
+        <v>-0.133076975433552</v>
+      </c>
+      <c r="I23">
+        <v>-0.2334493812891281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.07755875259905409</v>
+        <v>-0.08112542909871788</v>
       </c>
       <c r="C24">
-        <v>0.04490569376967994</v>
+        <v>-0.04015947285960359</v>
       </c>
       <c r="D24">
-        <v>0.06244572234797188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05434191140592792</v>
+      </c>
+      <c r="E24">
+        <v>0.01891274088457571</v>
+      </c>
+      <c r="F24">
+        <v>-0.04230169441332874</v>
+      </c>
+      <c r="G24">
+        <v>0.04403523792378583</v>
+      </c>
+      <c r="H24">
+        <v>0.02181452187132873</v>
+      </c>
+      <c r="I24">
+        <v>0.06423356023609135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.07577622366698114</v>
+        <v>-0.07671150037898437</v>
       </c>
       <c r="C25">
-        <v>0.05263508708060308</v>
+        <v>-0.03213060195234829</v>
       </c>
       <c r="D25">
-        <v>0.05863565084854653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0576174534307933</v>
+      </c>
+      <c r="E25">
+        <v>0.02681735662808041</v>
+      </c>
+      <c r="F25">
+        <v>-0.03658907752958316</v>
+      </c>
+      <c r="G25">
+        <v>0.04597415499407551</v>
+      </c>
+      <c r="H25">
+        <v>0.03075997993452989</v>
+      </c>
+      <c r="I25">
+        <v>0.0760612089984425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.04678250603116144</v>
+        <v>-0.04500009549850884</v>
       </c>
       <c r="C26">
-        <v>0.007774601914427642</v>
+        <v>-0.01804390243028032</v>
       </c>
       <c r="D26">
-        <v>0.01148724373342128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.003731644198675482</v>
+      </c>
+      <c r="E26">
+        <v>0.03807146382945009</v>
+      </c>
+      <c r="F26">
+        <v>-0.02906393008019115</v>
+      </c>
+      <c r="G26">
+        <v>0.01656776649117062</v>
+      </c>
+      <c r="H26">
+        <v>0.04352789445442838</v>
+      </c>
+      <c r="I26">
+        <v>0.003343585744435853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04489499360810424</v>
+        <v>-0.0763329958801547</v>
       </c>
       <c r="C28">
-        <v>0.06257583367366432</v>
+        <v>0.2904604647677494</v>
       </c>
       <c r="D28">
-        <v>-0.2832759130857047</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.05877048066769516</v>
+      </c>
+      <c r="E28">
+        <v>0.006746388791059186</v>
+      </c>
+      <c r="F28">
+        <v>-0.03363402621280475</v>
+      </c>
+      <c r="G28">
+        <v>0.02846094365667369</v>
+      </c>
+      <c r="H28">
+        <v>-0.0366568339476997</v>
+      </c>
+      <c r="I28">
+        <v>-0.01522233555838109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.05273977288202408</v>
+        <v>-0.05403804471055849</v>
       </c>
       <c r="C29">
-        <v>0.04680774072887987</v>
+        <v>0.004402756639730843</v>
       </c>
       <c r="D29">
-        <v>-0.002272658976859673</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03866397263815042</v>
+      </c>
+      <c r="E29">
+        <v>0.03367466029911344</v>
+      </c>
+      <c r="F29">
+        <v>-0.03574488016304644</v>
+      </c>
+      <c r="G29">
+        <v>0.01434555955829483</v>
+      </c>
+      <c r="H29">
+        <v>0.0883575089246222</v>
+      </c>
+      <c r="I29">
+        <v>0.03931187275299565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1389604513449859</v>
+        <v>-0.1287688443269041</v>
       </c>
       <c r="C30">
-        <v>0.07814315027275147</v>
+        <v>-0.04366950702513606</v>
       </c>
       <c r="D30">
-        <v>0.1008496874438317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08027941341958422</v>
+      </c>
+      <c r="E30">
+        <v>0.0656514615384458</v>
+      </c>
+      <c r="F30">
+        <v>-0.06846177828214227</v>
+      </c>
+      <c r="G30">
+        <v>0.05219036434199063</v>
+      </c>
+      <c r="H30">
+        <v>-0.04798635293814178</v>
+      </c>
+      <c r="I30">
+        <v>0.3099005421486637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05021362494808595</v>
+        <v>-0.04604858994150437</v>
       </c>
       <c r="C31">
-        <v>0.02713522097065285</v>
+        <v>-0.02993100620677748</v>
       </c>
       <c r="D31">
-        <v>0.02355705708560751</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02927086356150692</v>
+      </c>
+      <c r="E31">
+        <v>0.02261094534757799</v>
+      </c>
+      <c r="F31">
+        <v>-0.01278603517955665</v>
+      </c>
+      <c r="G31">
+        <v>-0.007005812639424745</v>
+      </c>
+      <c r="H31">
+        <v>0.06489953337703866</v>
+      </c>
+      <c r="I31">
+        <v>0.02767576683394717</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.03778300197917116</v>
+        <v>-0.04370581028246169</v>
       </c>
       <c r="C32">
-        <v>0.0127111593621345</v>
+        <v>0.001571855998949984</v>
       </c>
       <c r="D32">
-        <v>0.0268779870889265</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01268125609265026</v>
+      </c>
+      <c r="E32">
+        <v>0.07283856678724936</v>
+      </c>
+      <c r="F32">
+        <v>0.003978715970334151</v>
+      </c>
+      <c r="G32">
+        <v>0.02389016121030683</v>
+      </c>
+      <c r="H32">
+        <v>-0.01316365418029113</v>
+      </c>
+      <c r="I32">
+        <v>-0.02016543161245583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.09218098681609183</v>
+        <v>-0.09659247834851205</v>
       </c>
       <c r="C33">
-        <v>0.04477920294472491</v>
+        <v>-0.03567424611837332</v>
       </c>
       <c r="D33">
-        <v>0.04532208660512236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04524569338849281</v>
+      </c>
+      <c r="E33">
+        <v>0.02594830775896048</v>
+      </c>
+      <c r="F33">
+        <v>-0.008122128005810738</v>
+      </c>
+      <c r="G33">
+        <v>0.0005658877073704918</v>
+      </c>
+      <c r="H33">
+        <v>0.05225703834985725</v>
+      </c>
+      <c r="I33">
+        <v>0.07408842780157521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.06007183700299886</v>
+        <v>-0.06799459124234648</v>
       </c>
       <c r="C34">
-        <v>0.02209596581664929</v>
+        <v>-0.03662476890761577</v>
       </c>
       <c r="D34">
-        <v>0.05527027187296323</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03460315728905161</v>
+      </c>
+      <c r="E34">
+        <v>0.02053648396947442</v>
+      </c>
+      <c r="F34">
+        <v>-0.02847858740627016</v>
+      </c>
+      <c r="G34">
+        <v>0.027404704960153</v>
+      </c>
+      <c r="H34">
+        <v>0.03923022919344636</v>
+      </c>
+      <c r="I34">
+        <v>0.05512912662603069</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.0366886925133566</v>
+        <v>-0.03601901381976134</v>
       </c>
       <c r="C35">
-        <v>0.0153482113845837</v>
+        <v>-0.01307831538621673</v>
       </c>
       <c r="D35">
-        <v>0.01639217708796456</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01745085642434575</v>
+      </c>
+      <c r="E35">
+        <v>0.01567431597729839</v>
+      </c>
+      <c r="F35">
+        <v>0.01055771154401008</v>
+      </c>
+      <c r="G35">
+        <v>0.0006462490142081482</v>
+      </c>
+      <c r="H35">
+        <v>0.03426627935929769</v>
+      </c>
+      <c r="I35">
+        <v>0.04636087015751812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.03118775662199405</v>
+        <v>-0.0307922456668324</v>
       </c>
       <c r="C36">
-        <v>0.01514643014491308</v>
+        <v>-0.01119672113630218</v>
       </c>
       <c r="D36">
-        <v>0.01939850318407378</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0147146526282535</v>
+      </c>
+      <c r="E36">
+        <v>0.03238173311721871</v>
+      </c>
+      <c r="F36">
+        <v>-0.03638434659567594</v>
+      </c>
+      <c r="G36">
+        <v>0.01560427692828844</v>
+      </c>
+      <c r="H36">
+        <v>0.0363765093399856</v>
+      </c>
+      <c r="I36">
+        <v>0.06115308976147393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.0694051719283474</v>
+        <v>-0.05939102319483722</v>
       </c>
       <c r="C38">
-        <v>0.002622672800216357</v>
+        <v>-0.02699371894953171</v>
       </c>
       <c r="D38">
-        <v>-0.0007191945683439958</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.004291871807560556</v>
+      </c>
+      <c r="E38">
+        <v>0.03760797852933027</v>
+      </c>
+      <c r="F38">
+        <v>-0.005551103170642888</v>
+      </c>
+      <c r="G38">
+        <v>-0.007011098134419279</v>
+      </c>
+      <c r="H38">
+        <v>0.04029121883260686</v>
+      </c>
+      <c r="I38">
+        <v>0.008404835505378081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.09116598760864965</v>
+        <v>-0.09853040744122341</v>
       </c>
       <c r="C39">
-        <v>0.05497336524538789</v>
+        <v>-0.03047273086433658</v>
       </c>
       <c r="D39">
-        <v>0.04564820239108097</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06136405271307596</v>
+      </c>
+      <c r="E39">
+        <v>0.021524894272622</v>
+      </c>
+      <c r="F39">
+        <v>-0.0256343461223096</v>
+      </c>
+      <c r="G39">
+        <v>0.03608482072669852</v>
+      </c>
+      <c r="H39">
+        <v>0.01089242653304754</v>
+      </c>
+      <c r="I39">
+        <v>0.07165201325616588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07850348037239303</v>
+        <v>-0.05713672285714819</v>
       </c>
       <c r="C40">
-        <v>0.02173673006025547</v>
+        <v>-0.03792870824030033</v>
       </c>
       <c r="D40">
-        <v>0.02353909980027265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.005774936378786981</v>
+      </c>
+      <c r="E40">
+        <v>0.06587888454427202</v>
+      </c>
+      <c r="F40">
+        <v>0.005068211346886095</v>
+      </c>
+      <c r="G40">
+        <v>0.02611489080286189</v>
+      </c>
+      <c r="H40">
+        <v>-0.05606942311519197</v>
+      </c>
+      <c r="I40">
+        <v>0.2511539483292906</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.05237619389899023</v>
+        <v>-0.04622751475015122</v>
       </c>
       <c r="C41">
-        <v>0.01120521873843353</v>
+        <v>-0.03437827561188195</v>
       </c>
       <c r="D41">
-        <v>0.0321596175108398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01458485264186178</v>
+      </c>
+      <c r="E41">
+        <v>-0.00617967035661199</v>
+      </c>
+      <c r="F41">
+        <v>0.01214371544231916</v>
+      </c>
+      <c r="G41">
+        <v>0.01993626323118765</v>
+      </c>
+      <c r="H41">
+        <v>0.04394798960504575</v>
+      </c>
+      <c r="I41">
+        <v>0.02904266158626407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.05802326667853172</v>
+        <v>-0.06054001405453981</v>
       </c>
       <c r="C43">
-        <v>0.03034733189726992</v>
+        <v>-0.02309802482949376</v>
       </c>
       <c r="D43">
-        <v>0.009873375407789214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03099191331905699</v>
+      </c>
+      <c r="E43">
+        <v>0.01294500734904277</v>
+      </c>
+      <c r="F43">
+        <v>-0.01859265175944433</v>
+      </c>
+      <c r="G43">
+        <v>-0.005358687250781923</v>
+      </c>
+      <c r="H43">
+        <v>0.06155182304220799</v>
+      </c>
+      <c r="I43">
+        <v>0.002420149999056301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.09656144124903566</v>
+        <v>-0.0966107222798389</v>
       </c>
       <c r="C44">
-        <v>0.01077789899619083</v>
+        <v>-0.04715115840710653</v>
       </c>
       <c r="D44">
-        <v>0.05237628532788587</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.02056613078935795</v>
+      </c>
+      <c r="E44">
+        <v>0.07860201295597521</v>
+      </c>
+      <c r="F44">
+        <v>-0.1098849727462181</v>
+      </c>
+      <c r="G44">
+        <v>0.05799334797718163</v>
+      </c>
+      <c r="H44">
+        <v>0.04202755937172033</v>
+      </c>
+      <c r="I44">
+        <v>0.1323107877233807</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02853937488576029</v>
+        <v>-0.04173820485969466</v>
       </c>
       <c r="C46">
-        <v>0.02429928244921628</v>
+        <v>-0.02147612473704416</v>
       </c>
       <c r="D46">
-        <v>0.030683754750454</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03804942792264054</v>
+      </c>
+      <c r="E46">
+        <v>0.02870713265547183</v>
+      </c>
+      <c r="F46">
+        <v>-0.03015587295307226</v>
+      </c>
+      <c r="G46">
+        <v>-0.002734735176209424</v>
+      </c>
+      <c r="H46">
+        <v>0.0218090828246927</v>
+      </c>
+      <c r="I46">
+        <v>0.009968136838546813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03929368949224103</v>
+        <v>-0.04744396269226903</v>
       </c>
       <c r="C47">
-        <v>0.02585438983320733</v>
+        <v>0.0009837867472399073</v>
       </c>
       <c r="D47">
-        <v>-0.006246222281454685</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02127552035333579</v>
+      </c>
+      <c r="E47">
+        <v>0.04115165173309614</v>
+      </c>
+      <c r="F47">
+        <v>-0.00465573933833313</v>
+      </c>
+      <c r="G47">
+        <v>-0.0287586683740061</v>
+      </c>
+      <c r="H47">
+        <v>0.02396174839853945</v>
+      </c>
+      <c r="I47">
+        <v>0.03696738289207747</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.04313164914428006</v>
+        <v>-0.04184635922312174</v>
       </c>
       <c r="C48">
-        <v>0.02307475060889492</v>
+        <v>-0.01309520767677071</v>
       </c>
       <c r="D48">
-        <v>0.02837844736201532</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01787609264989385</v>
+      </c>
+      <c r="E48">
+        <v>0.04741701587857242</v>
+      </c>
+      <c r="F48">
+        <v>-0.01398605294579571</v>
+      </c>
+      <c r="G48">
+        <v>0.007934888397741221</v>
+      </c>
+      <c r="H48">
+        <v>0.01247173947457852</v>
+      </c>
+      <c r="I48">
+        <v>0.04181267047206883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1616211552272629</v>
+        <v>-0.2049424274674889</v>
       </c>
       <c r="C49">
-        <v>0.03967576889169535</v>
+        <v>-0.01071884974580744</v>
       </c>
       <c r="D49">
-        <v>0.02535744847828697</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.04850158343102053</v>
+      </c>
+      <c r="E49">
+        <v>-0.2105109208914371</v>
+      </c>
+      <c r="F49">
+        <v>0.009620828277543545</v>
+      </c>
+      <c r="G49">
+        <v>-0.1361796649662085</v>
+      </c>
+      <c r="H49">
+        <v>-0.2367152154166683</v>
+      </c>
+      <c r="I49">
+        <v>-0.06760615178103264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.05055795227431351</v>
+        <v>-0.05018393206120655</v>
       </c>
       <c r="C50">
-        <v>0.03702251700514209</v>
+        <v>-0.02453914311222009</v>
       </c>
       <c r="D50">
-        <v>0.03549737434833488</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04130943917247364</v>
+      </c>
+      <c r="E50">
+        <v>0.02530787099498406</v>
+      </c>
+      <c r="F50">
+        <v>-0.008631138627579278</v>
+      </c>
+      <c r="G50">
+        <v>0.008963717435253234</v>
+      </c>
+      <c r="H50">
+        <v>0.06742521101794437</v>
+      </c>
+      <c r="I50">
+        <v>0.02473300932469543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.0266671336233106</v>
+        <v>-0.03648224623828395</v>
       </c>
       <c r="C51">
-        <v>-0.002328067873827774</v>
+        <v>0.004451796910604185</v>
       </c>
       <c r="D51">
-        <v>-0.01042361497056149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.009014061548100409</v>
+      </c>
+      <c r="E51">
+        <v>-0.01069341569974744</v>
+      </c>
+      <c r="F51">
+        <v>-0.01297440707980985</v>
+      </c>
+      <c r="G51">
+        <v>-0.02262850375225489</v>
+      </c>
+      <c r="H51">
+        <v>-0.0206214937851518</v>
+      </c>
+      <c r="I51">
+        <v>-0.01594736684770249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1540991042290331</v>
+        <v>-0.1582578136916996</v>
       </c>
       <c r="C53">
-        <v>0.07693348481776799</v>
+        <v>-0.00131681295863354</v>
       </c>
       <c r="D53">
-        <v>-0.01267467477377504</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05666051898495949</v>
+      </c>
+      <c r="E53">
+        <v>-0.02780270709682077</v>
+      </c>
+      <c r="F53">
+        <v>0.006277389936735571</v>
+      </c>
+      <c r="G53">
+        <v>-0.00404310157131021</v>
+      </c>
+      <c r="H53">
+        <v>0.2076965470815027</v>
+      </c>
+      <c r="I53">
+        <v>-0.09878949265959407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.06334819746404068</v>
+        <v>-0.0617938896576288</v>
       </c>
       <c r="C54">
-        <v>0.02259912647502852</v>
+        <v>-0.003199677127949813</v>
       </c>
       <c r="D54">
-        <v>0.01738714082639158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01823165026308961</v>
+      </c>
+      <c r="E54">
+        <v>0.06322902678695459</v>
+      </c>
+      <c r="F54">
+        <v>-0.03481312769603086</v>
+      </c>
+      <c r="G54">
+        <v>0.04991520743670266</v>
+      </c>
+      <c r="H54">
+        <v>0.03974311600438465</v>
+      </c>
+      <c r="I54">
+        <v>0.1183045053464585</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1002448362572837</v>
+        <v>-0.1007446382861006</v>
       </c>
       <c r="C55">
-        <v>0.0491324130053806</v>
+        <v>-0.01449360655079073</v>
       </c>
       <c r="D55">
-        <v>0.01172714383011044</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0401626196693705</v>
+      </c>
+      <c r="E55">
+        <v>-0.003660612558162258</v>
+      </c>
+      <c r="F55">
+        <v>-0.02210431098624622</v>
+      </c>
+      <c r="G55">
+        <v>0.02437046447737896</v>
+      </c>
+      <c r="H55">
+        <v>0.1564067205712397</v>
+      </c>
+      <c r="I55">
+        <v>-0.02376475250138438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1432313758765739</v>
+        <v>-0.1493577214634647</v>
       </c>
       <c r="C56">
-        <v>0.0930602797514911</v>
+        <v>-0.01179608736633779</v>
       </c>
       <c r="D56">
-        <v>-0.007274117098964653</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.07505801666465815</v>
+      </c>
+      <c r="E56">
+        <v>-0.01489939271460503</v>
+      </c>
+      <c r="F56">
+        <v>-0.01147138849841104</v>
+      </c>
+      <c r="G56">
+        <v>0.02226146389251399</v>
+      </c>
+      <c r="H56">
+        <v>0.2019061382719058</v>
+      </c>
+      <c r="I56">
+        <v>-0.1146484312453579</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1214290389577884</v>
+        <v>-0.08792944160198017</v>
       </c>
       <c r="C58">
-        <v>-0.04087191301602591</v>
+        <v>-0.06247453264420858</v>
       </c>
       <c r="D58">
-        <v>0.0550000710113737</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.05882645801619648</v>
+      </c>
+      <c r="E58">
+        <v>0.1112715645359834</v>
+      </c>
+      <c r="F58">
+        <v>-0.0534659597774238</v>
+      </c>
+      <c r="G58">
+        <v>-0.1160870080083097</v>
+      </c>
+      <c r="H58">
+        <v>-0.1735403488915161</v>
+      </c>
+      <c r="I58">
+        <v>0.5317554115881413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.125815426456491</v>
+        <v>-0.1603543174264743</v>
       </c>
       <c r="C59">
-        <v>0.07999663372332386</v>
+        <v>0.3565129809695567</v>
       </c>
       <c r="D59">
-        <v>-0.4377166651261714</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.09200519109686287</v>
+      </c>
+      <c r="E59">
+        <v>-0.002826785820183734</v>
+      </c>
+      <c r="F59">
+        <v>-0.003818850912813265</v>
+      </c>
+      <c r="G59">
+        <v>0.01528052763603958</v>
+      </c>
+      <c r="H59">
+        <v>0.02390283652996675</v>
+      </c>
+      <c r="I59">
+        <v>-0.04445582065070205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2113138775555717</v>
+        <v>-0.2403489150374833</v>
       </c>
       <c r="C60">
-        <v>0.08443022498271084</v>
+        <v>-0.01713694464543032</v>
       </c>
       <c r="D60">
-        <v>0.003769148300212946</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.07495010904471248</v>
+      </c>
+      <c r="E60">
+        <v>-0.151727811309315</v>
+      </c>
+      <c r="F60">
+        <v>-0.01499742618315141</v>
+      </c>
+      <c r="G60">
+        <v>-0.004946773970673254</v>
+      </c>
+      <c r="H60">
+        <v>-0.1493201207162387</v>
+      </c>
+      <c r="I60">
+        <v>-0.1195080629456353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.07894568773779091</v>
+        <v>-0.08735285491002398</v>
       </c>
       <c r="C61">
-        <v>0.04948735203568762</v>
+        <v>-0.02045822155674912</v>
       </c>
       <c r="D61">
-        <v>0.02640648111600396</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05286809826290217</v>
+      </c>
+      <c r="E61">
+        <v>0.01293377453428904</v>
+      </c>
+      <c r="F61">
+        <v>-0.02783893708524743</v>
+      </c>
+      <c r="G61">
+        <v>0.04440009683410565</v>
+      </c>
+      <c r="H61">
+        <v>0.06477217313583142</v>
+      </c>
+      <c r="I61">
+        <v>0.03790659826001658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.1358037527860661</v>
+        <v>-0.1409960860512776</v>
       </c>
       <c r="C62">
-        <v>0.05424676816967992</v>
+        <v>-0.02663115466144421</v>
       </c>
       <c r="D62">
-        <v>-0.002938990308583297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04624357933519189</v>
+      </c>
+      <c r="E62">
+        <v>-0.04245750480724462</v>
+      </c>
+      <c r="F62">
+        <v>0.03835038166517767</v>
+      </c>
+      <c r="G62">
+        <v>0.0495151868121269</v>
+      </c>
+      <c r="H62">
+        <v>0.1992527533999422</v>
+      </c>
+      <c r="I62">
+        <v>-0.1132655456224783</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.05737382795862834</v>
+        <v>-0.05189106599661903</v>
       </c>
       <c r="C63">
-        <v>0.01934715180858713</v>
+        <v>-0.01594851385471865</v>
       </c>
       <c r="D63">
-        <v>0.02651781969114355</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01832600885293095</v>
+      </c>
+      <c r="E63">
+        <v>0.02467107282701265</v>
+      </c>
+      <c r="F63">
+        <v>-0.008433633344353358</v>
+      </c>
+      <c r="G63">
+        <v>0.04805337862581609</v>
+      </c>
+      <c r="H63">
+        <v>0.03723093439594694</v>
+      </c>
+      <c r="I63">
+        <v>0.03017289084080128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.1038037507713308</v>
+        <v>-0.1106849104171633</v>
       </c>
       <c r="C64">
-        <v>0.03114516283215583</v>
+        <v>-0.01039546069384509</v>
       </c>
       <c r="D64">
-        <v>0.01345956738333314</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02872878081120811</v>
+      </c>
+      <c r="E64">
+        <v>0.03261117384194352</v>
+      </c>
+      <c r="F64">
+        <v>-0.0609233280073697</v>
+      </c>
+      <c r="G64">
+        <v>0.04591391183833079</v>
+      </c>
+      <c r="H64">
+        <v>0.005372309120476696</v>
+      </c>
+      <c r="I64">
+        <v>0.05477928555201046</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.1273737848564399</v>
+        <v>-0.1330537103588994</v>
       </c>
       <c r="C65">
-        <v>0.04901978809680992</v>
+        <v>0.003882399012596141</v>
       </c>
       <c r="D65">
-        <v>0.02427651793973607</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04121455673851071</v>
+      </c>
+      <c r="E65">
+        <v>-0.009326505783690426</v>
+      </c>
+      <c r="F65">
+        <v>-0.02046890597025793</v>
+      </c>
+      <c r="G65">
+        <v>0.08605533473341156</v>
+      </c>
+      <c r="H65">
+        <v>-0.2052706785781559</v>
+      </c>
+      <c r="I65">
+        <v>0.02031878434788875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.1496742980843458</v>
+        <v>-0.1457690603046065</v>
       </c>
       <c r="C66">
-        <v>0.07985423039797016</v>
+        <v>-0.07151182869297475</v>
       </c>
       <c r="D66">
-        <v>0.08467725824175416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09221994406171272</v>
+      </c>
+      <c r="E66">
+        <v>-0.001305955828799692</v>
+      </c>
+      <c r="F66">
+        <v>-0.01661270587790796</v>
+      </c>
+      <c r="G66">
+        <v>0.08092297638072087</v>
+      </c>
+      <c r="H66">
+        <v>0.06614239567085918</v>
+      </c>
+      <c r="I66">
+        <v>0.1180067613085219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0953702577422442</v>
+        <v>-0.09879928760570365</v>
       </c>
       <c r="C67">
-        <v>0.007111368077304932</v>
+        <v>-0.03284785682260239</v>
       </c>
       <c r="D67">
-        <v>0.005453232413493471</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007449118242379611</v>
+      </c>
+      <c r="E67">
+        <v>-0.0002660332292452705</v>
+      </c>
+      <c r="F67">
+        <v>-0.01321420449858105</v>
+      </c>
+      <c r="G67">
+        <v>-0.01818393042337434</v>
+      </c>
+      <c r="H67">
+        <v>0.0301018551474068</v>
+      </c>
+      <c r="I67">
+        <v>-0.0227603033191549</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04712166847471223</v>
+        <v>-0.07394225404529198</v>
       </c>
       <c r="C68">
-        <v>0.04536908317017452</v>
+        <v>0.2756197844428042</v>
       </c>
       <c r="D68">
-        <v>-0.2553982380266342</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.06503959889522187</v>
+      </c>
+      <c r="E68">
+        <v>0.03409235728885764</v>
+      </c>
+      <c r="F68">
+        <v>-0.02093866042956108</v>
+      </c>
+      <c r="G68">
+        <v>-0.004759541785064545</v>
+      </c>
+      <c r="H68">
+        <v>0.016648595594504</v>
+      </c>
+      <c r="I68">
+        <v>0.01625612922428804</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06347870452165359</v>
+        <v>-0.0564008541182737</v>
       </c>
       <c r="C69">
-        <v>0.02554319435246547</v>
+        <v>-0.01473588679816225</v>
       </c>
       <c r="D69">
-        <v>0.01500580857677276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01497123599674711</v>
+      </c>
+      <c r="E69">
+        <v>0.02761232854048816</v>
+      </c>
+      <c r="F69">
+        <v>0.01034737473135058</v>
+      </c>
+      <c r="G69">
+        <v>0.00100869895355135</v>
+      </c>
+      <c r="H69">
+        <v>0.04200680120601094</v>
+      </c>
+      <c r="I69">
+        <v>0.01110735846089411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.01240309196032974</v>
+        <v>-0.03414595821267077</v>
       </c>
       <c r="C70">
-        <v>0.00181135958970011</v>
+        <v>0.003662793317491655</v>
       </c>
       <c r="D70">
-        <v>-0.01089719022979645</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.001165217995922778</v>
+      </c>
+      <c r="E70">
+        <v>-0.02818727509703736</v>
+      </c>
+      <c r="F70">
+        <v>0.006184999579094368</v>
+      </c>
+      <c r="G70">
+        <v>-0.004950668642638933</v>
+      </c>
+      <c r="H70">
+        <v>-0.02410298003767027</v>
+      </c>
+      <c r="I70">
+        <v>0.0109280241032922</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.04522654027025825</v>
+        <v>-0.08008137776800182</v>
       </c>
       <c r="C71">
-        <v>0.04015349079521073</v>
+        <v>0.2953740228448285</v>
       </c>
       <c r="D71">
-        <v>-0.2895082923205214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.07306509829016777</v>
+      </c>
+      <c r="E71">
+        <v>0.02194453502052512</v>
+      </c>
+      <c r="F71">
+        <v>-0.04419531684380466</v>
+      </c>
+      <c r="G71">
+        <v>0.002094811586209642</v>
+      </c>
+      <c r="H71">
+        <v>0.01728748769058833</v>
+      </c>
+      <c r="I71">
+        <v>0.01607035973400766</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1409705447173364</v>
+        <v>-0.1372737653596193</v>
       </c>
       <c r="C72">
-        <v>0.04397554176622163</v>
+        <v>0.003160053019145023</v>
       </c>
       <c r="D72">
-        <v>-0.0262258784641162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01245021229235001</v>
+      </c>
+      <c r="E72">
+        <v>-0.002444586042693364</v>
+      </c>
+      <c r="F72">
+        <v>0.1659495579098768</v>
+      </c>
+      <c r="G72">
+        <v>0.11490157502904</v>
+      </c>
+      <c r="H72">
+        <v>0.007779600811393048</v>
+      </c>
+      <c r="I72">
+        <v>-0.006099299962974677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2604669847989464</v>
+        <v>-0.2621975917994804</v>
       </c>
       <c r="C73">
-        <v>0.0624967508583157</v>
+        <v>-0.09338294896547276</v>
       </c>
       <c r="D73">
-        <v>0.06984447441875562</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.05859550519425143</v>
+      </c>
+      <c r="E73">
+        <v>-0.3335145050781619</v>
+      </c>
+      <c r="F73">
+        <v>0.007084006013830825</v>
+      </c>
+      <c r="G73">
+        <v>-0.2123518617005</v>
+      </c>
+      <c r="H73">
+        <v>-0.3199987592337561</v>
+      </c>
+      <c r="I73">
+        <v>-0.03340722152120791</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.08264553262032349</v>
+        <v>-0.0912660507373666</v>
       </c>
       <c r="C74">
-        <v>0.07868020581347639</v>
+        <v>-0.01210002547385257</v>
       </c>
       <c r="D74">
-        <v>0.004825281797931441</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.07239583826725554</v>
+      </c>
+      <c r="E74">
+        <v>-0.003366463594834639</v>
+      </c>
+      <c r="F74">
+        <v>-0.0004790058959826789</v>
+      </c>
+      <c r="G74">
+        <v>-0.02072693904916939</v>
+      </c>
+      <c r="H74">
+        <v>0.128130372661215</v>
+      </c>
+      <c r="I74">
+        <v>-0.01761339696729047</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1120100099253464</v>
+        <v>-0.1048867138980469</v>
       </c>
       <c r="C75">
-        <v>0.0472575568325764</v>
+        <v>-0.01922628088481193</v>
       </c>
       <c r="D75">
-        <v>0.003075635113566619</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02565179110636164</v>
+      </c>
+      <c r="E75">
+        <v>0.003573103126986825</v>
+      </c>
+      <c r="F75">
+        <v>0.005626813111500191</v>
+      </c>
+      <c r="G75">
+        <v>-0.005610793122979381</v>
+      </c>
+      <c r="H75">
+        <v>0.1156095061552991</v>
+      </c>
+      <c r="I75">
+        <v>-0.05952147948133125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1290978280682711</v>
+        <v>-0.1311176876097649</v>
       </c>
       <c r="C76">
-        <v>0.07390811412180651</v>
+        <v>-0.03470575701713704</v>
       </c>
       <c r="D76">
-        <v>0.027796570753264</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07564122846067378</v>
+      </c>
+      <c r="E76">
+        <v>0.00610003566673626</v>
+      </c>
+      <c r="F76">
+        <v>-0.03090056744728212</v>
+      </c>
+      <c r="G76">
+        <v>0.0258199356813398</v>
+      </c>
+      <c r="H76">
+        <v>0.2603265473464051</v>
+      </c>
+      <c r="I76">
+        <v>-0.09741027346825275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.133746791340101</v>
+        <v>-0.1020061630300824</v>
       </c>
       <c r="C77">
-        <v>-0.02582802263726569</v>
+        <v>-0.05699195418140899</v>
       </c>
       <c r="D77">
-        <v>0.06520066426248204</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04711248496495501</v>
+      </c>
+      <c r="E77">
+        <v>0.1222190631075954</v>
+      </c>
+      <c r="F77">
+        <v>-0.07411946141032343</v>
+      </c>
+      <c r="G77">
+        <v>0.7740008441176659</v>
+      </c>
+      <c r="H77">
+        <v>-0.2972335944879413</v>
+      </c>
+      <c r="I77">
+        <v>-0.2746302453174235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.1118932589786563</v>
+        <v>-0.1520782911150934</v>
       </c>
       <c r="C78">
-        <v>0.02899440814698838</v>
+        <v>-0.04997974599562031</v>
       </c>
       <c r="D78">
-        <v>0.07811330743931151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06226777090352815</v>
+      </c>
+      <c r="E78">
+        <v>0.09511654861101015</v>
+      </c>
+      <c r="F78">
+        <v>-0.06280911988319253</v>
+      </c>
+      <c r="G78">
+        <v>-0.009689808759224629</v>
+      </c>
+      <c r="H78">
+        <v>-0.1441525116953972</v>
+      </c>
+      <c r="I78">
+        <v>0.04420141757586661</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1407454037084157</v>
+        <v>-0.1425743878574846</v>
       </c>
       <c r="C79">
-        <v>0.0546131863815114</v>
+        <v>-0.03136548382924755</v>
       </c>
       <c r="D79">
-        <v>0.03036883012811304</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0459099894141474</v>
+      </c>
+      <c r="E79">
+        <v>-0.01751593405166742</v>
+      </c>
+      <c r="F79">
+        <v>-0.01319565526443479</v>
+      </c>
+      <c r="G79">
+        <v>0.02694866329374644</v>
+      </c>
+      <c r="H79">
+        <v>0.1781573704360904</v>
+      </c>
+      <c r="I79">
+        <v>-0.07922238522810003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.03517039497773013</v>
+        <v>-0.04045639279661457</v>
       </c>
       <c r="C80">
-        <v>0.01786568836535444</v>
+        <v>-0.005265761447829522</v>
       </c>
       <c r="D80">
-        <v>0.02259500147374247</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02192220613661083</v>
+      </c>
+      <c r="E80">
+        <v>-0.0530443787944334</v>
+      </c>
+      <c r="F80">
+        <v>-0.0007634018493437739</v>
+      </c>
+      <c r="G80">
+        <v>-0.006659207739076727</v>
+      </c>
+      <c r="H80">
+        <v>0.02160234660223652</v>
+      </c>
+      <c r="I80">
+        <v>0.1201557940058745</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1340523439533405</v>
+        <v>-0.1304753356009246</v>
       </c>
       <c r="C81">
-        <v>0.06793333608569661</v>
+        <v>-0.01170134059211144</v>
       </c>
       <c r="D81">
-        <v>0.00873095625541135</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.04846023076966066</v>
+      </c>
+      <c r="E81">
+        <v>-0.00156473541062754</v>
+      </c>
+      <c r="F81">
+        <v>-0.01830975234838645</v>
+      </c>
+      <c r="G81">
+        <v>0.00709120476172241</v>
+      </c>
+      <c r="H81">
+        <v>0.1574756625841515</v>
+      </c>
+      <c r="I81">
+        <v>-0.02018327561722684</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1260277033123363</v>
+        <v>-0.1239166615619822</v>
       </c>
       <c r="C82">
-        <v>0.06213190685746466</v>
+        <v>-0.01637548000990835</v>
       </c>
       <c r="D82">
-        <v>0.01174259454209041</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.05047802945613733</v>
+      </c>
+      <c r="E82">
+        <v>-0.01411948293810209</v>
+      </c>
+      <c r="F82">
+        <v>-0.02781754419106606</v>
+      </c>
+      <c r="G82">
+        <v>-0.004463766284841667</v>
+      </c>
+      <c r="H82">
+        <v>0.25398014881167</v>
+      </c>
+      <c r="I82">
+        <v>-0.1052341430592777</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.07061496706092529</v>
+        <v>-0.08404477182772624</v>
       </c>
       <c r="C83">
-        <v>-0.04247668168937677</v>
+        <v>-0.03113105569753317</v>
       </c>
       <c r="D83">
-        <v>-0.009015029061758259</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04198263248090017</v>
+      </c>
+      <c r="E83">
+        <v>-0.002604881905641284</v>
+      </c>
+      <c r="F83">
+        <v>-0.03525112750582028</v>
+      </c>
+      <c r="G83">
+        <v>-0.06996894580587018</v>
+      </c>
+      <c r="H83">
+        <v>-0.004836933908948305</v>
+      </c>
+      <c r="I83">
+        <v>0.1007814609291723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.03764455937095097</v>
+        <v>-0.03392492459518264</v>
       </c>
       <c r="C84">
-        <v>0.03318404698367013</v>
+        <v>-0.03293496674957775</v>
       </c>
       <c r="D84">
-        <v>0.03359817863775041</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03685866573333355</v>
+      </c>
+      <c r="E84">
+        <v>0.03177412479697363</v>
+      </c>
+      <c r="F84">
+        <v>0.04117844718084319</v>
+      </c>
+      <c r="G84">
+        <v>-0.03806708666960566</v>
+      </c>
+      <c r="H84">
+        <v>0.0408605605009239</v>
+      </c>
+      <c r="I84">
+        <v>0.09133489618222189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1125324576953155</v>
+        <v>-0.1196682659427101</v>
       </c>
       <c r="C85">
-        <v>0.02891890698549003</v>
+        <v>-0.03017510587853834</v>
       </c>
       <c r="D85">
-        <v>0.03559984691233386</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02843807765615099</v>
+      </c>
+      <c r="E85">
+        <v>-0.007753056730149038</v>
+      </c>
+      <c r="F85">
+        <v>-0.04411092051949014</v>
+      </c>
+      <c r="G85">
+        <v>0.005422155255876769</v>
+      </c>
+      <c r="H85">
+        <v>0.1588017194798498</v>
+      </c>
+      <c r="I85">
+        <v>-0.06195355154708508</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.06102686909134113</v>
+        <v>-0.05854439307171941</v>
       </c>
       <c r="C86">
-        <v>0.02114540631771834</v>
+        <v>-0.03008974688663824</v>
       </c>
       <c r="D86">
-        <v>0.06419015861823568</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02223153600571183</v>
+      </c>
+      <c r="E86">
+        <v>0.01928447467126893</v>
+      </c>
+      <c r="F86">
+        <v>-0.02250658431909333</v>
+      </c>
+      <c r="G86">
+        <v>-0.00454853553638112</v>
+      </c>
+      <c r="H86">
+        <v>-0.06768219487712517</v>
+      </c>
+      <c r="I86">
+        <v>-0.03971007160484163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.1247405284381758</v>
+        <v>-0.1273866349904821</v>
       </c>
       <c r="C87">
-        <v>0.06435383525549285</v>
+        <v>-0.06000178375076931</v>
       </c>
       <c r="D87">
-        <v>0.09252834560542621</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06700546042978235</v>
+      </c>
+      <c r="E87">
+        <v>0.05185875159820619</v>
+      </c>
+      <c r="F87">
+        <v>-0.03605845375461379</v>
+      </c>
+      <c r="G87">
+        <v>0.1551998035616223</v>
+      </c>
+      <c r="H87">
+        <v>-0.1041631632596899</v>
+      </c>
+      <c r="I87">
+        <v>-0.0002900391504016871</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05895412311852189</v>
+        <v>-0.06367420994780561</v>
       </c>
       <c r="C88">
-        <v>0.03041242312703956</v>
+        <v>-0.0304735988835523</v>
       </c>
       <c r="D88">
-        <v>0.02639792153738985</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03863200601122933</v>
+      </c>
+      <c r="E88">
+        <v>-0.006297745260147185</v>
+      </c>
+      <c r="F88">
+        <v>-0.02219841901368521</v>
+      </c>
+      <c r="G88">
+        <v>0.01385077087965851</v>
+      </c>
+      <c r="H88">
+        <v>0.04324108521916398</v>
+      </c>
+      <c r="I88">
+        <v>0.03141274248691033</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.0742379282507081</v>
+        <v>-0.126577265206083</v>
       </c>
       <c r="C89">
-        <v>0.07918379178049734</v>
+        <v>0.3741154634842729</v>
       </c>
       <c r="D89">
-        <v>-0.319347542732005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.06403984902016673</v>
+      </c>
+      <c r="E89">
+        <v>0.02497528395441491</v>
+      </c>
+      <c r="F89">
+        <v>-0.08501839834386941</v>
+      </c>
+      <c r="G89">
+        <v>-0.01887294470887445</v>
+      </c>
+      <c r="H89">
+        <v>0.009752014127636082</v>
+      </c>
+      <c r="I89">
+        <v>0.08062032057163825</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.06331508434051737</v>
+        <v>-0.09229951944830167</v>
       </c>
       <c r="C90">
-        <v>0.04281613057541576</v>
+        <v>0.276940881064425</v>
       </c>
       <c r="D90">
-        <v>-0.2834891216902503</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.07132692595498809</v>
+      </c>
+      <c r="E90">
+        <v>0.01810968544112038</v>
+      </c>
+      <c r="F90">
+        <v>-0.03767732101548175</v>
+      </c>
+      <c r="G90">
+        <v>0.009603480700047134</v>
+      </c>
+      <c r="H90">
+        <v>-0.02031608739038644</v>
+      </c>
+      <c r="I90">
+        <v>0.1032159048316548</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09514485508121816</v>
+        <v>-0.08978243032274925</v>
       </c>
       <c r="C91">
-        <v>0.04833649546777503</v>
+        <v>-0.02120664790059416</v>
       </c>
       <c r="D91">
-        <v>0.007863272530932766</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03372396656764438</v>
+      </c>
+      <c r="E91">
+        <v>0.002276648784906646</v>
+      </c>
+      <c r="F91">
+        <v>-0.003354805161939903</v>
+      </c>
+      <c r="G91">
+        <v>-0.01394327057835055</v>
+      </c>
+      <c r="H91">
+        <v>0.08439500396035916</v>
+      </c>
+      <c r="I91">
+        <v>-0.04267455299057907</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.05977128660446046</v>
+        <v>-0.0947762781924102</v>
       </c>
       <c r="C92">
-        <v>0.0667323033992438</v>
+        <v>0.3304062710807827</v>
       </c>
       <c r="D92">
-        <v>-0.3287320836574252</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.06864314729372629</v>
+      </c>
+      <c r="E92">
+        <v>0.02391201119535931</v>
+      </c>
+      <c r="F92">
+        <v>-0.04337466433380671</v>
+      </c>
+      <c r="G92">
+        <v>0.004727078137792344</v>
+      </c>
+      <c r="H92">
+        <v>0.01801804911057399</v>
+      </c>
+      <c r="I92">
+        <v>0.0248064396475192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.05403818701041427</v>
+        <v>-0.09345129376546368</v>
       </c>
       <c r="C93">
-        <v>0.05692858524985328</v>
+        <v>0.3145619300392754</v>
       </c>
       <c r="D93">
-        <v>-0.3080622625369983</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.06471949156085281</v>
+      </c>
+      <c r="E93">
+        <v>0.0003744751997643476</v>
+      </c>
+      <c r="F93">
+        <v>-0.02863750785498336</v>
+      </c>
+      <c r="G93">
+        <v>0.009227511399801002</v>
+      </c>
+      <c r="H93">
+        <v>-0.005498368334791877</v>
+      </c>
+      <c r="I93">
+        <v>0.009445133237414657</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.125678014742313</v>
+        <v>-0.124163541446799</v>
       </c>
       <c r="C94">
-        <v>0.02823365009780709</v>
+        <v>-0.04138928471069978</v>
       </c>
       <c r="D94">
-        <v>0.05207674699084638</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02212521265349556</v>
+      </c>
+      <c r="E94">
+        <v>0.002161931360421887</v>
+      </c>
+      <c r="F94">
+        <v>-0.01877227453340281</v>
+      </c>
+      <c r="G94">
+        <v>-0.05656371581547973</v>
+      </c>
+      <c r="H94">
+        <v>0.1079642109688479</v>
+      </c>
+      <c r="I94">
+        <v>-0.05063297691619127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1259273035688702</v>
+        <v>-0.1370192225032724</v>
       </c>
       <c r="C95">
-        <v>0.01830100204341694</v>
+        <v>-0.05959128601567907</v>
       </c>
       <c r="D95">
-        <v>0.07897275946321061</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.02547077701418278</v>
+      </c>
+      <c r="E95">
+        <v>0.01625421466987919</v>
+      </c>
+      <c r="F95">
+        <v>-0.04666647778247141</v>
+      </c>
+      <c r="G95">
+        <v>0.0453657511136795</v>
+      </c>
+      <c r="H95">
+        <v>-0.1270915003792574</v>
+      </c>
+      <c r="I95">
+        <v>0.04395046826676147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.231637949905975</v>
+        <v>-0.1827884267943604</v>
       </c>
       <c r="C97">
-        <v>0.06424444560002583</v>
+        <v>0.03034042196010092</v>
       </c>
       <c r="D97">
-        <v>-0.1155306482180837</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.04504494717204754</v>
+      </c>
+      <c r="E97">
+        <v>0.168928433633951</v>
+      </c>
+      <c r="F97">
+        <v>0.922584817841442</v>
+      </c>
+      <c r="G97">
+        <v>0.06028722951577903</v>
+      </c>
+      <c r="H97">
+        <v>-0.008912857089700963</v>
+      </c>
+      <c r="I97">
+        <v>0.0961027177728789</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2565646364161021</v>
+        <v>-0.2749101069321233</v>
       </c>
       <c r="C98">
-        <v>0.07100392328270651</v>
+        <v>-0.05391292697055991</v>
       </c>
       <c r="D98">
-        <v>0.03560942359431078</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06023346658089462</v>
+      </c>
+      <c r="E98">
+        <v>-0.2691132301847973</v>
+      </c>
+      <c r="F98">
+        <v>0.06376018695942724</v>
+      </c>
+      <c r="G98">
+        <v>-0.2633880368527682</v>
+      </c>
+      <c r="H98">
+        <v>-0.1574067140601713</v>
+      </c>
+      <c r="I98">
+        <v>-0.2271916305936154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0.3647579284201463</v>
+        <v>-0.230693051510252</v>
       </c>
       <c r="C99">
-        <v>-0.9062426119117657</v>
+        <v>-0.2835983784507146</v>
       </c>
       <c r="D99">
-        <v>-0.08554472576609778</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.9027773588632823</v>
+      </c>
+      <c r="E99">
+        <v>-0.03097101278017577</v>
+      </c>
+      <c r="F99">
+        <v>-0.07855122080308342</v>
+      </c>
+      <c r="G99">
+        <v>-0.01712444474383356</v>
+      </c>
+      <c r="H99">
+        <v>0.1039987398635963</v>
+      </c>
+      <c r="I99">
+        <v>-0.001582551524114367</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.05281065340878988</v>
+        <v>-0.05411104320896631</v>
       </c>
       <c r="C101">
-        <v>0.04713803908496827</v>
+        <v>0.004213182156168612</v>
       </c>
       <c r="D101">
-        <v>-0.002012479867183756</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03915162703887019</v>
+      </c>
+      <c r="E101">
+        <v>0.03329686012871107</v>
+      </c>
+      <c r="F101">
+        <v>-0.03569058498553805</v>
+      </c>
+      <c r="G101">
+        <v>0.01309262464446678</v>
+      </c>
+      <c r="H101">
+        <v>0.08705791159513029</v>
+      </c>
+      <c r="I101">
+        <v>0.03967245743560999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
